--- a/tests/eindhoven-500/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_Auto_OV.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_Auto_OV.xlsx
@@ -4848,7 +4848,7 @@
         <v>1374547.983144315</v>
       </c>
       <c r="D264">
-        <v>2829826.106543711</v>
+        <v>2829826.106543712</v>
       </c>
       <c r="E264">
         <v>6458236.022852254</v>
@@ -5369,7 +5369,7 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>8716843.938112119</v>
+        <v>8716843.938112121</v>
       </c>
       <c r="C295">
         <v>16098776.52748808</v>
@@ -5454,7 +5454,7 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>5655073.418583294</v>
+        <v>5655073.418583296</v>
       </c>
       <c r="C300">
         <v>10482277.63534198</v>
@@ -7466,7 +7466,7 @@
         <v>14614.97607532032</v>
       </c>
       <c r="D418">
-        <v>41608.65381416308</v>
+        <v>41608.65381416309</v>
       </c>
       <c r="E418">
         <v>63235.7198139492</v>
